--- a/Assignment_updates.xlsx
+++ b/Assignment_updates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>https://github.com/jk-jagath/Assignments.git</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -139,31 +142,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +528,7 @@
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -495,349 +544,359 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>43967</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="B20:B31"/>
     <mergeCell ref="A2:A31"/>
@@ -854,14 +913,6 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
